--- a/erpright_data.xlsx
+++ b/erpright_data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bymin\OneDrive\문서\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\훈련\교육내용\ERPRight\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" firstSheet="14" activeTab="19"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="tb_detail_code" sheetId="1" r:id="rId1"/>
@@ -36,15 +36,15 @@
     <sheet name="tb_file" sheetId="22" r:id="rId22"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tb_detail_code!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tb_detail_code!$A$1:$N$50</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'tb_detail_code (check)'!$A$1:$N$82</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1563" uniqueCount="562">
   <si>
     <t>detail_code</t>
   </si>
@@ -686,15 +686,6 @@
   </si>
   <si>
     <t>/accounting/empDv.do</t>
-  </si>
-  <si>
-    <t>E2030</t>
-  </si>
-  <si>
-    <t>지출결의서 조회 및 승인</t>
-  </si>
-  <si>
-    <t>/accounting/bmDv.do</t>
   </si>
   <si>
     <t>E2040</t>
@@ -1064,98 +1055,14 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>여</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1234-5688</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc123@naver.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1996.12.16</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3161-12-1565489</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 구로</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016.09.12</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>check2</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>010-1234-5694</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>abczxcv@naver.com</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2001.01.31</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2135-51-6354312</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>서울 여의도</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>2020.08.24</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>A</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>check3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김전무</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김회계</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영업</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-1234-5168</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>loginID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1708,6 +1615,364 @@
   </si>
   <si>
     <t>file_name</t>
+  </si>
+  <si>
+    <t>E5040</t>
+  </si>
+  <si>
+    <t>제품대분류관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/productCode.do</t>
+  </si>
+  <si>
+    <t>E2025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>지출결의서 신청View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/accounting/bmDvView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4060</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4000</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/product.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5040</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인사관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/empMgtView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승진내역관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/empGradeView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/taapproveView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태신청View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/empTaApplyView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1055</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>근태현황조회View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/empTaCalendarView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1065</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/empPaymentView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>급여조회View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/employee/empPayHistView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>계정과목관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/accounting/acctitleView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회계전표 조회View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/accounting/accSlipFView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일별매출현황View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sales/ddRevenueView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>월별매출현황View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sales/mmRevenueView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>년별매출현황View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/sales/yyRevenueView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업계획View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/empSalePlanView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업실적조회View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/bmSalePlanView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래처 관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/bizPartnerView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수주관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/oeManagementView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4055</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>견적서 작성 및 조회View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/estManagementView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4065</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/business/productView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/noticeView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부서관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/deptMgrView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통코드관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/comnCodMgrView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제품대분류관리View</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/system/productCodeView.do</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1065</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1075</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2045</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4015</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5025</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5035</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매출</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2106,13 +2371,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2174,12 +2439,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
@@ -2188,12 +2453,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C3" t="s">
         <v>32</v>
@@ -2202,12 +2467,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
         <v>35</v>
@@ -2216,12 +2481,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>37</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C5" t="s">
         <v>38</v>
@@ -2230,12 +2495,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -2246,12 +2511,12 @@
       <c r="G6" s="2"/>
       <c r="I6" s="2"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C7" t="s">
         <v>44</v>
@@ -2260,12 +2525,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C8" t="s">
         <v>47</v>
@@ -2274,12 +2539,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C9" t="s">
         <v>50</v>
@@ -2288,12 +2553,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C10" t="s">
         <v>52</v>
@@ -2302,12 +2567,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
         <v>54</v>
@@ -2316,12 +2581,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C12" t="s">
         <v>56</v>
@@ -2330,12 +2595,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>63</v>
       </c>
       <c r="B13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C13" t="s">
         <v>64</v>
@@ -2344,12 +2609,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>70</v>
       </c>
       <c r="B14" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C14" t="s">
         <v>71</v>
@@ -2358,12 +2623,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C15" t="s">
         <v>75</v>
@@ -2372,12 +2637,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C16" t="s">
         <v>79</v>
@@ -2386,12 +2651,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>82</v>
       </c>
       <c r="B17" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C17" t="s">
         <v>83</v>
@@ -2400,12 +2665,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>86</v>
       </c>
       <c r="B18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C18" t="s">
         <v>87</v>
@@ -2414,12 +2679,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>90</v>
       </c>
       <c r="B19" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C19" t="s">
         <v>91</v>
@@ -2428,12 +2693,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C20" t="s">
         <v>62</v>
@@ -2442,12 +2707,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
         <v>69</v>
@@ -2456,12 +2721,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C22" t="s">
         <v>23</v>
@@ -2470,12 +2735,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>55</v>
       </c>
       <c r="B23" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C23" t="s">
         <v>59</v>
@@ -2484,12 +2749,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>63</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C24" t="s">
         <v>67</v>
@@ -2498,12 +2763,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C25" t="s">
         <v>72</v>
@@ -2512,12 +2777,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>74</v>
       </c>
       <c r="B26" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C26" t="s">
         <v>76</v>
@@ -2526,12 +2791,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>78</v>
       </c>
       <c r="B27" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C27" t="s">
         <v>80</v>
@@ -2542,12 +2807,12 @@
       <c r="G27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C28" t="s">
         <v>84</v>
@@ -2556,12 +2821,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C29" t="s">
         <v>88</v>
@@ -2570,85 +2835,85 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C30" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C31" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E31" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1</v>
       </c>
       <c r="B33" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E34" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3</v>
       </c>
       <c r="B35" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C35" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
         <v>17</v>
@@ -2659,10 +2924,10 @@
         <v>1</v>
       </c>
       <c r="B36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E36" t="s">
         <v>17</v>
@@ -2673,10 +2938,10 @@
         <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
         <v>17</v>
@@ -2687,10 +2952,10 @@
         <v>3</v>
       </c>
       <c r="B38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
         <v>17</v>
@@ -2701,10 +2966,10 @@
         <v>4</v>
       </c>
       <c r="B39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
         <v>17</v>
@@ -2715,21 +2980,21 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C40" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C41" t="s">
         <v>95</v>
@@ -2738,12 +3003,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C42" t="s">
         <v>100</v>
@@ -2752,12 +3017,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C43" t="s">
         <v>104</v>
@@ -2766,12 +3031,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C44" t="s">
         <v>108</v>
@@ -2780,88 +3045,116 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>291</v>
+      </c>
+      <c r="B45" t="s">
+        <v>285</v>
+      </c>
+      <c r="C45" t="s">
+        <v>288</v>
+      </c>
+      <c r="E45" t="s">
         <v>294</v>
       </c>
-      <c r="B45" t="s">
-        <v>288</v>
-      </c>
-      <c r="C45" t="s">
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>292</v>
+      </c>
+      <c r="B46" t="s">
+        <v>285</v>
+      </c>
+      <c r="C46" t="s">
+        <v>289</v>
+      </c>
+      <c r="E46" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B47" t="s">
+        <v>285</v>
+      </c>
+      <c r="C47" t="s">
+        <v>290</v>
+      </c>
+      <c r="E47" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>291</v>
       </c>
-      <c r="E45" t="s">
+      <c r="B48" t="s">
+        <v>295</v>
+      </c>
+      <c r="C48" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="E48" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B49" t="s">
         <v>295</v>
       </c>
-      <c r="B46" t="s">
-        <v>288</v>
-      </c>
-      <c r="C46" t="s">
-        <v>292</v>
-      </c>
-      <c r="E46" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>296</v>
-      </c>
-      <c r="B47" t="s">
-        <v>288</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C49" t="s">
+        <v>298</v>
+      </c>
+      <c r="E49" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>293</v>
       </c>
-      <c r="E47" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="B50" t="s">
+        <v>295</v>
+      </c>
+      <c r="C50" t="s">
+        <v>299</v>
+      </c>
+      <c r="E50" t="s">
         <v>294</v>
       </c>
-      <c r="B48" t="s">
-        <v>298</v>
-      </c>
-      <c r="C48" t="s">
-        <v>300</v>
-      </c>
-      <c r="E48" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>295</v>
-      </c>
-      <c r="B49" t="s">
-        <v>298</v>
-      </c>
-      <c r="C49" t="s">
-        <v>301</v>
-      </c>
-      <c r="E49" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B50" t="s">
-        <v>298</v>
-      </c>
-      <c r="C50" t="s">
-        <v>302</v>
-      </c>
-      <c r="E50" t="s">
-        <v>297</v>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>6</v>
+      </c>
+      <c r="B51" t="s">
+        <v>267</v>
+      </c>
+      <c r="C51" t="s">
+        <v>560</v>
+      </c>
+      <c r="E51" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>7</v>
+      </c>
+      <c r="B52" t="s">
+        <v>267</v>
+      </c>
+      <c r="C52" t="s">
+        <v>561</v>
+      </c>
+      <c r="E52" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
@@ -2869,7 +3162,12 @@
       <c r="I59" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1">
+  <autoFilter ref="A1:N50">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="laccount_cd"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:N19">
       <sortCondition ref="A1"/>
     </sortState>
@@ -2899,19 +3197,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>378</v>
+        <v>354</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>375</v>
+        <v>351</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>376</v>
+        <v>352</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>377</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -2919,16 +3217,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>432</v>
+        <v>408</v>
       </c>
       <c r="D2" s="11">
         <v>45049</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -2936,16 +3234,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>434</v>
+        <v>410</v>
       </c>
       <c r="D3" s="11">
         <v>45049</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>435</v>
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -2976,34 +3274,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>379</v>
+        <v>355</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>380</v>
+        <v>356</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>381</v>
+        <v>357</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>382</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -3023,13 +3321,13 @@
         <v>2</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G2" s="11">
         <v>45017</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="I2" s="8">
         <v>100</v>
@@ -3055,13 +3353,13 @@
         <v>3</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G3" s="11">
         <v>45017</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>436</v>
+        <v>412</v>
       </c>
       <c r="I3" s="8">
         <v>100</v>
@@ -3100,13 +3398,13 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>167</v>
@@ -3115,25 +3413,25 @@
         <v>168</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>392</v>
+        <v>368</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>393</v>
+        <v>369</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>394</v>
+        <v>370</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>395</v>
+        <v>371</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>396</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -3144,34 +3442,34 @@
         <v>0</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>437</v>
+        <v>413</v>
       </c>
       <c r="D2" s="8">
         <v>945312</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>438</v>
+        <v>414</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>439</v>
+        <v>415</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>440</v>
+        <v>416</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>441</v>
+        <v>417</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>442</v>
+        <v>418</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>443</v>
+        <v>419</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>444</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3182,34 +3480,34 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>445</v>
+        <v>421</v>
       </c>
       <c r="D3" s="8">
         <v>651812</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>446</v>
+        <v>422</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>447</v>
+        <v>423</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>448</v>
+        <v>424</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>450</v>
+        <v>426</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>451</v>
+        <v>427</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>452</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3220,34 +3518,34 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="D4" s="8">
         <v>324312</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>455</v>
+        <v>431</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>456</v>
+        <v>432</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>457</v>
+        <v>433</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>458</v>
+        <v>434</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>460</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3281,22 +3579,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -3310,7 +3608,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>461</v>
+        <v>437</v>
       </c>
       <c r="E2" s="8">
         <v>100</v>
@@ -3330,7 +3628,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>462</v>
+        <v>438</v>
       </c>
       <c r="E3" s="8">
         <v>200</v>
@@ -3350,7 +3648,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>463</v>
+        <v>439</v>
       </c>
       <c r="E4" s="8">
         <v>300</v>
@@ -3370,7 +3668,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>464</v>
+        <v>440</v>
       </c>
       <c r="E5" s="8">
         <v>400</v>
@@ -3390,7 +3688,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>465</v>
+        <v>441</v>
       </c>
       <c r="E6" s="8">
         <v>500</v>
@@ -3410,7 +3708,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="E7" s="8">
         <v>600</v>
@@ -3430,7 +3728,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>467</v>
+        <v>443</v>
       </c>
       <c r="E8" s="8">
         <v>500</v>
@@ -3462,13 +3760,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -3479,7 +3777,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>468</v>
+        <v>444</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -3490,7 +3788,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>469</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -3501,7 +3799,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>470</v>
+        <v>446</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -3512,7 +3810,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -3523,7 +3821,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -3534,7 +3832,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>473</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3561,16 +3859,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>400</v>
+        <v>376</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>401</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,10 +3879,10 @@
         <v>101</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>474</v>
+        <v>450</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3595,10 +3893,10 @@
         <v>102</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>476</v>
+        <v>452</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3609,10 +3907,10 @@
         <v>103</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>477</v>
+        <v>453</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>475</v>
+        <v>451</v>
       </c>
     </row>
   </sheetData>
@@ -3649,49 +3947,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>402</v>
+        <v>378</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>351</v>
+        <v>327</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>404</v>
+        <v>380</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>405</v>
+        <v>381</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>406</v>
+        <v>382</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>407</v>
+        <v>383</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -3705,16 +4003,16 @@
         <v>103</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E2" s="8">
         <v>4</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="H2" s="11">
         <v>45028</v>
@@ -3726,13 +4024,13 @@
         <v>20</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="L2" s="11">
         <v>45046</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -3746,16 +4044,16 @@
         <v>103</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E3" s="8">
         <v>4</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="H3" s="11">
         <v>45029</v>
@@ -3767,13 +4065,13 @@
         <v>20</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="L3" s="11">
         <v>45046</v>
       </c>
       <c r="M3" s="11" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -3787,16 +4085,16 @@
         <v>103</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E4" s="8">
         <v>4</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="H4" s="11">
         <v>45030</v>
@@ -3808,13 +4106,13 @@
         <v>20</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
       <c r="L4" s="11">
         <v>45046</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -3854,19 +4152,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>411</v>
+        <v>387</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>409</v>
+        <v>385</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -3877,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -3888,7 +4186,7 @@
         <v>2</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -3899,7 +4197,7 @@
         <v>3</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -3907,13 +4205,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="D5" s="12">
         <v>3</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -3921,13 +4219,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="D6" s="12">
         <v>4</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -3935,13 +4233,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="D7" s="12">
         <v>5</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -3949,13 +4247,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D8" s="12">
         <v>6</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -3963,13 +4261,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="D9" s="12">
         <v>7</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4041,49 +4339,49 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>413</v>
+        <v>389</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>412</v>
+        <v>388</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>419</v>
+        <v>395</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>415</v>
+        <v>391</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>364</v>
+        <v>340</v>
       </c>
       <c r="L1" s="10" t="s">
-        <v>398</v>
+        <v>374</v>
       </c>
       <c r="M1" s="10" t="s">
-        <v>416</v>
+        <v>392</v>
       </c>
       <c r="N1" s="10" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="O1" s="10" t="s">
-        <v>418</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
@@ -4091,13 +4389,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E2" s="8">
         <v>1</v>
@@ -4133,7 +4431,7 @@
         <v>1100</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
@@ -4141,13 +4439,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>484</v>
+        <v>460</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E3" s="8">
         <v>2</v>
@@ -4183,7 +4481,7 @@
         <v>2420</v>
       </c>
       <c r="O3" s="8" t="s">
-        <v>486</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
@@ -4191,13 +4489,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E4" s="8">
         <v>3</v>
@@ -4233,7 +4531,7 @@
         <v>3960</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
@@ -4241,13 +4539,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>485</v>
+        <v>461</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E5" s="8">
         <v>1</v>
@@ -4283,7 +4581,7 @@
         <v>5720</v>
       </c>
       <c r="O5" s="8" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
@@ -4291,13 +4589,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>487</v>
+        <v>463</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E6" s="8">
         <v>3</v>
@@ -4333,7 +4631,7 @@
         <v>7700</v>
       </c>
       <c r="O6" s="8" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
@@ -4341,13 +4639,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E7" s="8">
         <v>2</v>
@@ -4383,7 +4681,7 @@
         <v>9900</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -4391,13 +4689,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>490</v>
+        <v>466</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>488</v>
+        <v>464</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="E8" s="8">
         <v>2</v>
@@ -4433,7 +4731,7 @@
         <v>5500</v>
       </c>
       <c r="O8" s="8" t="s">
-        <v>489</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4444,10 +4742,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4559,16 +4857,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s">
         <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>485</v>
       </c>
       <c r="D4" t="s">
-        <v>190</v>
+        <v>486</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -4588,16 +4886,16 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s">
         <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -4617,16 +4915,16 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
       <c r="B6" t="s">
         <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>195</v>
+        <v>488</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>489</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -4646,16 +4944,16 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B7" t="s">
         <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -4675,16 +4973,16 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>200</v>
+        <v>490</v>
       </c>
       <c r="B8" t="s">
         <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>491</v>
       </c>
       <c r="D8" t="s">
-        <v>202</v>
+        <v>492</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -4704,16 +5002,16 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="B9" t="s">
         <v>180</v>
       </c>
       <c r="C9" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -4733,22 +5031,22 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C10" t="s">
-        <v>207</v>
+        <v>494</v>
       </c>
       <c r="D10" t="s">
-        <v>182</v>
+        <v>495</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="s">
         <v>183</v>
@@ -4762,19 +5060,19 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C11" t="s">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -4791,19 +5089,19 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>211</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C12" t="s">
-        <v>212</v>
+        <v>497</v>
       </c>
       <c r="D12" t="s">
-        <v>213</v>
+        <v>498</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -4820,19 +5118,19 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C13" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D13" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -4849,19 +5147,19 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>499</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>218</v>
+        <v>500</v>
       </c>
       <c r="D14" t="s">
-        <v>219</v>
+        <v>501</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -4878,22 +5176,22 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>205</v>
       </c>
       <c r="F15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" t="s">
         <v>183</v>
@@ -4907,19 +5205,19 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="B16" t="s">
-        <v>220</v>
+        <v>180</v>
       </c>
       <c r="C16" t="s">
-        <v>223</v>
+        <v>502</v>
       </c>
       <c r="D16" t="s">
-        <v>224</v>
+        <v>503</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -4936,22 +5234,22 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="B17" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>226</v>
+        <v>207</v>
       </c>
       <c r="D17" t="s">
-        <v>227</v>
+        <v>182</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="s">
         <v>183</v>
@@ -4965,19 +5263,19 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>228</v>
+        <v>208</v>
       </c>
       <c r="B18" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="C18" t="s">
-        <v>229</v>
+        <v>209</v>
       </c>
       <c r="D18" t="s">
-        <v>230</v>
+        <v>210</v>
       </c>
       <c r="F18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -4994,22 +5292,22 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C19" t="s">
-        <v>232</v>
+        <v>504</v>
       </c>
       <c r="D19" t="s">
-        <v>182</v>
+        <v>505</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="s">
         <v>183</v>
@@ -5023,19 +5321,19 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="B20" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C20" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D20" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="F20">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>1</v>
@@ -5052,19 +5350,19 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>236</v>
+        <v>475</v>
       </c>
       <c r="B21" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C21" t="s">
-        <v>237</v>
+        <v>476</v>
       </c>
       <c r="D21" t="s">
-        <v>238</v>
+        <v>477</v>
       </c>
       <c r="F21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>1</v>
@@ -5081,19 +5379,19 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>239</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C22" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="D22" t="s">
-        <v>241</v>
+        <v>216</v>
       </c>
       <c r="F22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22">
         <v>1</v>
@@ -5110,19 +5408,19 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>242</v>
+        <v>506</v>
       </c>
       <c r="B23" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>507</v>
       </c>
       <c r="D23" t="s">
-        <v>244</v>
+        <v>508</v>
       </c>
       <c r="F23">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -5139,22 +5437,22 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>245</v>
+        <v>217</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>246</v>
+        <v>218</v>
       </c>
       <c r="D24" t="s">
-        <v>247</v>
+        <v>182</v>
       </c>
       <c r="F24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="s">
         <v>183</v>
@@ -5168,22 +5466,22 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="B25" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="F25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="s">
         <v>183</v>
@@ -5197,19 +5495,19 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>250</v>
+        <v>509</v>
       </c>
       <c r="B26" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>251</v>
+        <v>510</v>
       </c>
       <c r="D26" t="s">
-        <v>252</v>
+        <v>511</v>
       </c>
       <c r="F26">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H26">
         <v>1</v>
@@ -5226,19 +5524,19 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>254</v>
+        <v>223</v>
       </c>
       <c r="D27" t="s">
-        <v>255</v>
+        <v>224</v>
       </c>
       <c r="F27">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -5255,19 +5553,19 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="B28" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>513</v>
       </c>
       <c r="D28" t="s">
-        <v>258</v>
+        <v>514</v>
       </c>
       <c r="F28">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H28">
         <v>1</v>
@@ -5279,12 +5577,709 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>225</v>
+      </c>
+      <c r="B29" t="s">
+        <v>217</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>1</v>
+      </c>
+      <c r="I29" t="s">
+        <v>183</v>
+      </c>
+      <c r="J29" t="s">
+        <v>17</v>
+      </c>
+      <c r="K29" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>515</v>
+      </c>
+      <c r="B30" t="s">
+        <v>217</v>
+      </c>
+      <c r="C30" t="s">
+        <v>516</v>
+      </c>
+      <c r="D30" t="s">
+        <v>517</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="H30">
+        <v>1</v>
+      </c>
+      <c r="I30" t="s">
+        <v>183</v>
+      </c>
+      <c r="J30" t="s">
+        <v>17</v>
+      </c>
+      <c r="K30" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B31" t="s">
+        <v>228</v>
+      </c>
+      <c r="C31" t="s">
+        <v>229</v>
+      </c>
+      <c r="D31" t="s">
+        <v>182</v>
+      </c>
+      <c r="F31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>183</v>
+      </c>
+      <c r="J31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K31" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" t="s">
+        <v>228</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32">
+        <v>4</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32" t="s">
+        <v>183</v>
+      </c>
+      <c r="J32" t="s">
+        <v>17</v>
+      </c>
+      <c r="K32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>518</v>
+      </c>
+      <c r="B33" t="s">
+        <v>228</v>
+      </c>
+      <c r="C33" t="s">
+        <v>519</v>
+      </c>
+      <c r="D33" t="s">
+        <v>520</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+      <c r="I33" t="s">
+        <v>183</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+      <c r="K33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>233</v>
+      </c>
+      <c r="B34" t="s">
+        <v>228</v>
+      </c>
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34" t="s">
+        <v>183</v>
+      </c>
+      <c r="J34" t="s">
+        <v>17</v>
+      </c>
+      <c r="K34" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>521</v>
+      </c>
+      <c r="B35" t="s">
+        <v>228</v>
+      </c>
+      <c r="C35" t="s">
+        <v>522</v>
+      </c>
+      <c r="D35" t="s">
+        <v>523</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+      <c r="I35" t="s">
+        <v>183</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>236</v>
+      </c>
+      <c r="B36" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" t="s">
+        <v>237</v>
+      </c>
+      <c r="D36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36" t="s">
+        <v>183</v>
+      </c>
+      <c r="J36" t="s">
+        <v>17</v>
+      </c>
+      <c r="K36" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>524</v>
+      </c>
+      <c r="B37" t="s">
+        <v>228</v>
+      </c>
+      <c r="C37" t="s">
+        <v>525</v>
+      </c>
+      <c r="D37" t="s">
+        <v>526</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
+        <v>183</v>
+      </c>
+      <c r="J37" t="s">
+        <v>17</v>
+      </c>
+      <c r="K37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" t="s">
+        <v>228</v>
+      </c>
+      <c r="C38" t="s">
+        <v>240</v>
+      </c>
+      <c r="D38" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="H38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>183</v>
+      </c>
+      <c r="J38" t="s">
+        <v>17</v>
+      </c>
+      <c r="K38" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>527</v>
+      </c>
+      <c r="B39" t="s">
+        <v>228</v>
+      </c>
+      <c r="C39" t="s">
+        <v>528</v>
+      </c>
+      <c r="D39" t="s">
+        <v>529</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="I39" t="s">
+        <v>183</v>
+      </c>
+      <c r="J39" t="s">
+        <v>17</v>
+      </c>
+      <c r="K39" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>242</v>
+      </c>
+      <c r="B40" t="s">
+        <v>228</v>
+      </c>
+      <c r="C40" t="s">
+        <v>243</v>
+      </c>
+      <c r="D40" t="s">
+        <v>244</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+      <c r="I40" t="s">
+        <v>183</v>
+      </c>
+      <c r="J40" t="s">
+        <v>17</v>
+      </c>
+      <c r="K40" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>530</v>
+      </c>
+      <c r="B41" t="s">
+        <v>228</v>
+      </c>
+      <c r="C41" t="s">
+        <v>531</v>
+      </c>
+      <c r="D41" t="s">
+        <v>532</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+      <c r="I41" t="s">
+        <v>183</v>
+      </c>
+      <c r="J41" t="s">
+        <v>17</v>
+      </c>
+      <c r="K41" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>478</v>
+      </c>
+      <c r="B42" t="s">
+        <v>479</v>
+      </c>
+      <c r="C42" t="s">
+        <v>480</v>
+      </c>
+      <c r="D42" t="s">
+        <v>481</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+      <c r="I42" t="s">
+        <v>183</v>
+      </c>
+      <c r="J42" t="s">
+        <v>17</v>
+      </c>
+      <c r="K42" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>533</v>
+      </c>
+      <c r="B43" t="s">
+        <v>479</v>
+      </c>
+      <c r="C43" t="s">
+        <v>534</v>
+      </c>
+      <c r="D43" t="s">
+        <v>535</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+      <c r="I43" t="s">
+        <v>183</v>
+      </c>
+      <c r="J43" t="s">
+        <v>17</v>
+      </c>
+      <c r="K43" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44" t="s">
+        <v>246</v>
+      </c>
+      <c r="D44" t="s">
+        <v>182</v>
+      </c>
+      <c r="F44">
+        <v>5</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" t="s">
+        <v>183</v>
+      </c>
+      <c r="J44" t="s">
+        <v>17</v>
+      </c>
+      <c r="K44" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>247</v>
+      </c>
+      <c r="B45" t="s">
+        <v>245</v>
+      </c>
+      <c r="C45" t="s">
+        <v>248</v>
+      </c>
+      <c r="D45" t="s">
+        <v>249</v>
+      </c>
+      <c r="F45">
+        <v>5</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+      <c r="I45" t="s">
+        <v>183</v>
+      </c>
+      <c r="J45" t="s">
+        <v>17</v>
+      </c>
+      <c r="K45" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>536</v>
+      </c>
+      <c r="B46" t="s">
+        <v>245</v>
+      </c>
+      <c r="C46" t="s">
+        <v>537</v>
+      </c>
+      <c r="D46" t="s">
+        <v>538</v>
+      </c>
+      <c r="F46">
+        <v>5</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+      <c r="I46" t="s">
+        <v>183</v>
+      </c>
+      <c r="J46" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47" t="s">
+        <v>245</v>
+      </c>
+      <c r="C47" t="s">
+        <v>251</v>
+      </c>
+      <c r="D47" t="s">
+        <v>252</v>
+      </c>
+      <c r="F47">
+        <v>5</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+      <c r="I47" t="s">
+        <v>183</v>
+      </c>
+      <c r="J47" t="s">
+        <v>17</v>
+      </c>
+      <c r="K47" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>539</v>
+      </c>
+      <c r="B48" t="s">
+        <v>245</v>
+      </c>
+      <c r="C48" t="s">
+        <v>540</v>
+      </c>
+      <c r="D48" t="s">
+        <v>541</v>
+      </c>
+      <c r="F48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+      <c r="I48" t="s">
+        <v>183</v>
+      </c>
+      <c r="J48" t="s">
+        <v>17</v>
+      </c>
+      <c r="K48" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>253</v>
+      </c>
+      <c r="B49" t="s">
+        <v>245</v>
+      </c>
+      <c r="C49" t="s">
+        <v>254</v>
+      </c>
+      <c r="D49" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49">
+        <v>5</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+      <c r="I49" t="s">
+        <v>183</v>
+      </c>
+      <c r="J49" t="s">
+        <v>17</v>
+      </c>
+      <c r="K49" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>542</v>
+      </c>
+      <c r="B50" t="s">
+        <v>245</v>
+      </c>
+      <c r="C50" t="s">
+        <v>543</v>
+      </c>
+      <c r="D50" t="s">
+        <v>544</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+      <c r="I50" t="s">
+        <v>183</v>
+      </c>
+      <c r="J50" t="s">
+        <v>17</v>
+      </c>
+      <c r="K50" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>472</v>
+      </c>
+      <c r="B51" t="s">
+        <v>245</v>
+      </c>
+      <c r="C51" t="s">
+        <v>473</v>
+      </c>
+      <c r="D51" t="s">
+        <v>474</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51" t="s">
+        <v>183</v>
+      </c>
+      <c r="J51" t="s">
+        <v>17</v>
+      </c>
+      <c r="K51" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>545</v>
+      </c>
+      <c r="B52" t="s">
+        <v>245</v>
+      </c>
+      <c r="C52" t="s">
+        <v>546</v>
+      </c>
+      <c r="D52" t="s">
+        <v>547</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+      <c r="I52" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" t="s">
+        <v>17</v>
+      </c>
+      <c r="K52" t="s">
         <v>184</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5293,7 +6288,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C36" sqref="C36:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5346,24 +6341,24 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
         <v>161</v>
@@ -5372,61 +6367,61 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>265</v>
+      </c>
+      <c r="B7" t="s">
+        <v>266</v>
+      </c>
+      <c r="C7" t="s">
         <v>268</v>
-      </c>
-      <c r="B7" t="s">
-        <v>269</v>
-      </c>
-      <c r="C7" t="s">
-        <v>271</v>
       </c>
       <c r="F7" s="4"/>
       <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B8" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" t="s">
         <v>269</v>
-      </c>
-      <c r="C8" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B9" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B10" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -5445,10 +6440,10 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -5526,7 +6521,7 @@
         <v>93</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -5534,7 +6529,7 @@
         <v>99</v>
       </c>
       <c r="B10" t="s">
-        <v>188</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -5542,7 +6537,7 @@
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>484</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -5550,7 +6545,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -5558,7 +6553,7 @@
         <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -5566,7 +6561,7 @@
         <v>103</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -5574,7 +6569,7 @@
         <v>93</v>
       </c>
       <c r="B15" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -5582,7 +6577,7 @@
         <v>99</v>
       </c>
       <c r="B16" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -5590,95 +6585,95 @@
         <v>103</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>487</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>548</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B22" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>200</v>
+        <v>548</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B24" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B25" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="B26" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>203</v>
+        <v>549</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -5686,7 +6681,7 @@
         <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>206</v>
+        <v>549</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -5694,7 +6689,7 @@
         <v>103</v>
       </c>
       <c r="B30" t="s">
-        <v>206</v>
+        <v>549</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -5702,63 +6697,63 @@
         <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>206</v>
+        <v>549</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B32" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>208</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>211</v>
+        <v>496</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B36" t="s">
-        <v>211</v>
+        <v>496</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>496</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -5766,7 +6761,7 @@
         <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -5774,47 +6769,47 @@
         <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B41" t="s">
-        <v>220</v>
+        <v>550</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>220</v>
+        <v>550</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B43" t="s">
-        <v>222</v>
+        <v>550</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -5822,63 +6817,63 @@
         <v>103</v>
       </c>
       <c r="B46" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>551</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>292</v>
       </c>
       <c r="B49" t="s">
-        <v>231</v>
+        <v>551</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>231</v>
+        <v>551</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>551</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B52" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -5886,103 +6881,103 @@
         <v>107</v>
       </c>
       <c r="B54" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>236</v>
+        <v>552</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B58" t="s">
-        <v>239</v>
+        <v>552</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>292</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>475</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>242</v>
+        <v>475</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="B64" t="s">
-        <v>245</v>
+        <v>475</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B66" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -5990,7 +6985,7 @@
         <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>248</v>
+        <v>553</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
@@ -5998,23 +6993,23 @@
         <v>103</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>553</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B69" t="s">
-        <v>248</v>
+        <v>217</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>217</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
@@ -6022,7 +7017,7 @@
         <v>99</v>
       </c>
       <c r="B71" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
@@ -6030,39 +7025,503 @@
         <v>103</v>
       </c>
       <c r="B72" t="s">
-        <v>250</v>
+        <v>219</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B73" t="s">
-        <v>250</v>
+        <v>554</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B74" t="s">
-        <v>253</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>296</v>
+        <v>99</v>
       </c>
       <c r="B75" t="s">
-        <v>253</v>
+        <v>222</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>103</v>
+      </c>
+      <c r="B76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>99</v>
+      </c>
+      <c r="B77" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>103</v>
+      </c>
+      <c r="B78" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+      <c r="B79" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>103</v>
+      </c>
+      <c r="B80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>99</v>
+      </c>
+      <c r="B81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>93</v>
       </c>
-      <c r="B76" t="s">
-        <v>256</v>
+      <c r="B83" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>99</v>
+      </c>
+      <c r="B84" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>103</v>
+      </c>
+      <c r="B85" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>107</v>
+      </c>
+      <c r="B88" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>93</v>
+      </c>
+      <c r="B89" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>99</v>
+      </c>
+      <c r="B92" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>107</v>
+      </c>
+      <c r="B93" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>99</v>
+      </c>
+      <c r="B95" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>107</v>
+      </c>
+      <c r="B96" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>93</v>
+      </c>
+      <c r="B97" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>292</v>
+      </c>
+      <c r="B98" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>107</v>
+      </c>
+      <c r="B99" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>93</v>
+      </c>
+      <c r="B100" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>292</v>
+      </c>
+      <c r="B101" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>93</v>
+      </c>
+      <c r="B103" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>93</v>
+      </c>
+      <c r="B106" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>107</v>
+      </c>
+      <c r="B112" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>482</v>
+      </c>
+      <c r="B113" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>482</v>
+      </c>
+      <c r="B114" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>93</v>
+      </c>
+      <c r="B115" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>99</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>103</v>
+      </c>
+      <c r="B117" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>107</v>
+      </c>
+      <c r="B118" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>93</v>
+      </c>
+      <c r="B119" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>99</v>
+      </c>
+      <c r="B120" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>103</v>
+      </c>
+      <c r="B121" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>107</v>
+      </c>
+      <c r="B122" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>93</v>
+      </c>
+      <c r="B123" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B124" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>107</v>
+      </c>
+      <c r="B126" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>93</v>
+      </c>
+      <c r="B127" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>293</v>
+      </c>
+      <c r="B128" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>93</v>
+      </c>
+      <c r="B129" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>293</v>
+      </c>
+      <c r="B130" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>93</v>
+      </c>
+      <c r="B131" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>558</v>
+      </c>
+      <c r="B132" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>93</v>
+      </c>
+      <c r="B133" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>93</v>
+      </c>
+      <c r="B134" t="s">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -7349,25 +8808,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>491</v>
+        <v>467</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>492</v>
+        <v>468</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>493</v>
+        <v>469</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>494</v>
+        <v>470</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>495</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -7380,8 +8839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7417,13 +8876,13 @@
         <v>165</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>166</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>167</v>
@@ -7432,96 +8891,96 @@
         <v>168</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="K1" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="L1" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>289</v>
-      </c>
       <c r="N1" s="5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="O1" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="R1" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="S1" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="U1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>305</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="T1" s="5" t="s">
-        <v>261</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>334</v>
+        <v>318</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D2" s="8">
         <v>1234</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="H2" s="8">
         <v>12658</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="K2" s="8">
         <v>4</v>
       </c>
       <c r="L2" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="O2" s="8">
+        <v>1</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>315</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="O2" s="8">
-        <v>1</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q2" s="8" t="s">
-        <v>318</v>
       </c>
       <c r="S2" s="8">
         <v>1</v>
@@ -7531,189 +8990,72 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="D3" s="8">
-        <v>1234</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>320</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="H3" s="8">
-        <v>16548</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="K3" s="8">
-        <v>1</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="O3" s="8">
-        <v>2</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>323</v>
-      </c>
-      <c r="Q3" s="8" t="s">
-        <v>326</v>
-      </c>
-      <c r="S3" s="8">
-        <v>2</v>
-      </c>
-      <c r="T3" s="8">
-        <v>2</v>
-      </c>
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+      <c r="S3" s="8"/>
+      <c r="T3" s="8"/>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="D4" s="8">
-        <v>1234</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="H4" s="8">
-        <v>12231</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="K4" s="8">
-        <v>6</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="M4" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="O4" s="8">
-        <v>3</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="S4" s="8">
-        <v>2</v>
-      </c>
-      <c r="T4" s="8">
-        <v>2</v>
-      </c>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="8"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D5" s="8">
-        <v>1234</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>311</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>329</v>
-      </c>
-      <c r="H5" s="8">
-        <v>12231</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>317</v>
-      </c>
-      <c r="K5" s="8">
-        <v>6</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="M5" s="8" t="s">
-        <v>296</v>
-      </c>
-      <c r="N5" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="O5" s="8">
-        <v>3</v>
-      </c>
-      <c r="P5" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q5" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="S5" s="8">
-        <v>2</v>
-      </c>
-      <c r="T5" s="8">
-        <v>2</v>
-      </c>
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
-    <hyperlink ref="G4" r:id="rId3"/>
-    <hyperlink ref="G5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7724,7 +9066,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7736,18 +9078,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>344</v>
+        <v>320</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>346</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" s="11">
         <v>44926</v>
@@ -7758,7 +9100,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B3" s="11">
         <v>44926</v>
@@ -7769,7 +9111,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B4" s="11">
         <v>44926</v>
@@ -7790,7 +9132,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7802,27 +9144,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>323</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>324</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" s="11">
         <v>44322</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D2" s="8">
         <v>3</v>
@@ -7830,13 +9172,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B3" s="11">
         <v>43930</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D3" s="8">
         <v>2</v>
@@ -7844,13 +9186,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B4" s="11">
         <v>44817</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="D4" s="8">
         <v>2</v>
@@ -7884,37 +9226,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>349</v>
+        <v>325</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>352</v>
+        <v>328</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>355</v>
+        <v>331</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>356</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -7925,13 +9267,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>421</v>
+        <v>397</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>422</v>
+        <v>398</v>
       </c>
       <c r="F2" s="11">
         <v>44986</v>
@@ -7946,10 +9288,10 @@
         <v>2</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>423</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -7960,13 +9302,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="F3" s="11">
         <v>45000</v>
@@ -7981,10 +9323,10 @@
         <v>0.5</v>
       </c>
       <c r="J3" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -7995,13 +9337,13 @@
         <v>2</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>427</v>
+        <v>403</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>425</v>
+        <v>401</v>
       </c>
       <c r="F4" s="11">
         <v>45005</v>
@@ -8016,10 +9358,10 @@
         <v>2</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>420</v>
+        <v>396</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -8045,13 +9387,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>357</v>
+        <v>333</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -8059,7 +9401,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>428</v>
+        <v>404</v>
       </c>
       <c r="C2">
         <v>4.5</v>
@@ -8070,7 +9412,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>429</v>
+        <v>405</v>
       </c>
       <c r="C3">
         <v>3.43</v>
@@ -8081,7 +9423,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>430</v>
+        <v>406</v>
       </c>
       <c r="C4">
         <v>0.8</v>
@@ -8092,7 +9434,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>431</v>
+        <v>407</v>
       </c>
       <c r="C5">
         <v>1.56</v>
@@ -8131,43 +9473,43 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>374</v>
+        <v>350</v>
       </c>
       <c r="B1" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="J1" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="K1" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C1" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>364</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>365</v>
-      </c>
-      <c r="I1" s="10" t="s">
+      <c r="L1" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>345</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>368</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -8175,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C2" s="8">
         <f>J2*0.045</f>
@@ -8215,7 +9557,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -8223,7 +9565,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C3" s="8">
         <f t="shared" ref="C3:C5" si="0">J3*0.045</f>
@@ -8263,7 +9605,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -8271,7 +9613,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C4" s="8">
         <f t="shared" si="0"/>
@@ -8311,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -8319,7 +9661,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="C5" s="8">
         <f t="shared" si="0"/>
@@ -8359,7 +9701,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="8" t="s">
-        <v>426</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -8386,21 +9728,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>343</v>
+        <v>319</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>370</v>
+        <v>346</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>371</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B2" s="8">
         <v>2023</v>
@@ -8414,7 +9756,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B3" s="8">
         <v>2023</v>
@@ -8428,7 +9770,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="B4" s="8">
         <v>2023</v>
